--- a/Datasets/problemset1.xlsx
+++ b/Datasets/problemset1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RWorks\Econometrics2\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFAE20F-7998-4C53-BAF1-C869BB07041D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F4FDC-8657-4CA6-A477-27716E852FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problemset1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1882,17 +1882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="13.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
@@ -1991,7 +1991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="48.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>394.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>362.7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32.4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
